--- a/Planificación.xlsx
+++ b/Planificación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD8DC74-D73F-4996-B627-485851F92C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE7EBD5-E00F-491F-A64D-445CCCE3B7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E22A818-5115-4EEC-BACB-97BF20EAB24C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="89">
   <si>
     <t>Iteracion 1</t>
   </si>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>Fin</t>
-  </si>
-  <si>
-    <t>FECHAS REALES</t>
   </si>
   <si>
     <t>FECHAS PLANIFICADO</t>
@@ -3260,8 +3257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCABCBAC-E3CF-4453-A312-13BD53787315}">
   <dimension ref="B1:AI109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,7 +3556,7 @@
         <v>50</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.25">
@@ -4306,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH22" s="67"/>
       <c r="AI22" s="67"/>
@@ -4780,7 +4777,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S36" s="67"/>
       <c r="T36" s="67"/>
@@ -5304,7 +5301,7 @@
       <c r="AE70" s="21"/>
       <c r="AF70" s="21"/>
       <c r="AG70" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" s="67"/>
       <c r="AI70" s="67"/>
@@ -5671,14 +5668,10 @@
     </row>
     <row r="90" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C90" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D90" s="67"/>
       <c r="E90" s="67"/>
-      <c r="F90" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C91" s="5" t="s">
@@ -5690,12 +5683,6 @@
       <c r="E91" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F91" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="92" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C92" s="5">
@@ -5707,12 +5694,6 @@
       <c r="E92" s="104">
         <v>44887</v>
       </c>
-      <c r="F92" s="104">
-        <v>44881</v>
-      </c>
-      <c r="G92" s="104">
-        <v>44887</v>
-      </c>
     </row>
     <row r="93" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C93" s="5">
@@ -5724,10 +5705,6 @@
       <c r="E93" s="104">
         <v>44894</v>
       </c>
-      <c r="F93" s="104">
-        <v>44888</v>
-      </c>
-      <c r="G93" s="5"/>
     </row>
     <row r="94" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C94" s="5">
@@ -5739,8 +5716,6 @@
       <c r="E94" s="104">
         <v>44897</v>
       </c>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C95" s="5">
@@ -5752,8 +5727,6 @@
       <c r="E95" s="104">
         <v>44902</v>
       </c>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
     </row>
     <row r="96" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C96" s="5">
@@ -5765,8 +5738,6 @@
       <c r="E96" s="104">
         <v>44907</v>
       </c>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C97" s="5">
@@ -5778,8 +5749,6 @@
       <c r="E97" s="104">
         <v>44910</v>
       </c>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C98" s="5">
@@ -5791,8 +5760,6 @@
       <c r="E98" s="104">
         <v>44914</v>
       </c>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C99" s="5" t="s">
@@ -5804,12 +5771,10 @@
       <c r="E99" s="104">
         <v>44918</v>
       </c>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C102" s="67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D102" s="67"/>
       <c r="E102" s="67"/>
@@ -5822,7 +5787,7 @@
         <v>58</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>39</v>

--- a/Planificación.xlsx
+++ b/Planificación.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomiabarca/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomiabarca/Documents/1_Cuatrimestre/ISO2/Practicas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95605BA-F467-8A4F-BD10-2EAA49065DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B1EF7F-9817-7E4B-87C4-8F6FC4C9C659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{1E22A818-5115-4EEC-BACB-97BF20EAB24C}"/>
   </bookViews>
@@ -1065,10 +1065,50 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="27" xfId="12" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1083,12 +1123,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="30" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1098,40 +1132,6 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="32" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="27" xfId="12" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="20% - Énfasis1" xfId="2" builtinId="30"/>
@@ -3260,8 +3260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCABCBAC-E3CF-4453-A312-13BD53787315}">
   <dimension ref="B1:AI109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3743,83 +3743,83 @@
       </c>
     </row>
     <row r="13" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="93"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="97"/>
+      <c r="AD13" s="97"/>
+      <c r="AE13" s="97"/>
+      <c r="AF13" s="97"/>
     </row>
     <row r="14" spans="2:32" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="111" t="s">
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="112" t="s">
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="98" t="s">
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="99" t="s">
+      <c r="S14" s="103"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="103"/>
+      <c r="W14" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="109" t="s">
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="AC14" s="109"/>
-      <c r="AD14" s="109"/>
-      <c r="AE14" s="109"/>
-      <c r="AF14" s="109"/>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
     </row>
     <row r="15" spans="2:32" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
@@ -4304,11 +4304,11 @@
       <c r="AF22" s="21">
         <v>1</v>
       </c>
-      <c r="AG22" s="92" t="s">
+      <c r="AG22" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="92"/>
+      <c r="AH22" s="93"/>
+      <c r="AI22" s="93"/>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
@@ -4345,28 +4345,28 @@
       <c r="T23" s="64"/>
       <c r="U23" s="64"/>
       <c r="V23" s="65"/>
-      <c r="W23" s="103">
+      <c r="W23" s="94">
         <f>SUM(W17,X17,Y18,Y19,Z20,Z21,AA22)</f>
         <v>18</v>
       </c>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="104"/>
-      <c r="AA23" s="105"/>
-      <c r="AB23" s="103">
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="94">
         <f>SUM(AB17,AC17,AD18,AD19,AE20,AE21,AF22)</f>
         <v>12</v>
       </c>
-      <c r="AC23" s="104"/>
-      <c r="AD23" s="104"/>
-      <c r="AE23" s="104"/>
-      <c r="AF23" s="105"/>
-      <c r="AG23" s="103">
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="96"/>
+      <c r="AG23" s="94">
         <f>SUM(AB23,W23,R23,M23,H23,C23)</f>
         <v>153</v>
       </c>
-      <c r="AH23" s="104"/>
-      <c r="AI23" s="105"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="96"/>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
@@ -4400,25 +4400,25 @@
       <c r="T24" s="64"/>
       <c r="U24" s="64"/>
       <c r="V24" s="65"/>
-      <c r="W24" s="103">
+      <c r="W24" s="94">
         <v>540</v>
       </c>
-      <c r="X24" s="104"/>
-      <c r="Y24" s="104"/>
-      <c r="Z24" s="104"/>
-      <c r="AA24" s="105"/>
-      <c r="AB24" s="103">
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="94">
         <v>360</v>
       </c>
-      <c r="AC24" s="104"/>
-      <c r="AD24" s="104"/>
-      <c r="AE24" s="104"/>
-      <c r="AF24" s="105"/>
-      <c r="AG24" s="103">
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="96"/>
+      <c r="AG24" s="94">
         <v>4590</v>
       </c>
-      <c r="AH24" s="104"/>
-      <c r="AI24" s="105"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="96"/>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
@@ -4452,68 +4452,68 @@
       <c r="T25" s="64"/>
       <c r="U25" s="64"/>
       <c r="V25" s="65"/>
-      <c r="W25" s="103">
+      <c r="W25" s="94">
         <v>3</v>
       </c>
-      <c r="X25" s="104"/>
-      <c r="Y25" s="104"/>
-      <c r="Z25" s="104"/>
-      <c r="AA25" s="105"/>
-      <c r="AB25" s="103">
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="96"/>
+      <c r="AB25" s="94">
         <v>2</v>
       </c>
-      <c r="AC25" s="104"/>
-      <c r="AD25" s="104"/>
-      <c r="AE25" s="104"/>
-      <c r="AF25" s="105"/>
-      <c r="AG25" s="103">
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="95"/>
+      <c r="AF25" s="96"/>
+      <c r="AG25" s="94">
         <f>SUM(AB25,W25,R25,M25,H25,C25)</f>
         <v>19</v>
       </c>
-      <c r="AH25" s="104"/>
-      <c r="AI25" s="105"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="96"/>
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C28" s="95" t="s">
+      <c r="C28" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="96" t="s">
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="97" t="s">
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="97"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
     </row>
     <row r="29" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
@@ -4778,134 +4778,134 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="92" t="s">
+      <c r="R36" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="S36" s="92"/>
-      <c r="T36" s="92"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="92">
+      <c r="C37" s="93">
         <v>41</v>
       </c>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92">
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93">
         <v>16</v>
       </c>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="92">
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93">
         <v>16</v>
       </c>
-      <c r="N37" s="92"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="103">
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="94">
         <v>73</v>
       </c>
-      <c r="S37" s="104"/>
-      <c r="T37" s="105"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="96"/>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="92">
+      <c r="C38" s="93">
         <v>1230</v>
       </c>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92">
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93">
         <v>480</v>
       </c>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92">
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93">
         <v>480</v>
       </c>
-      <c r="N38" s="92"/>
-      <c r="O38" s="92"/>
-      <c r="P38" s="92"/>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="103">
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="94">
         <v>2190</v>
       </c>
-      <c r="S38" s="104"/>
-      <c r="T38" s="105"/>
+      <c r="S38" s="95"/>
+      <c r="T38" s="96"/>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="92">
+      <c r="C39" s="93">
         <v>4</v>
       </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92">
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93">
         <v>2</v>
       </c>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92">
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93">
         <v>2</v>
       </c>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="103">
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="94">
         <v>8</v>
       </c>
-      <c r="S39" s="104"/>
-      <c r="T39" s="105"/>
+      <c r="S39" s="95"/>
+      <c r="T39" s="96"/>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="R44" s="93" t="s">
+      <c r="R44" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="S44" s="93"/>
-      <c r="T44" s="93"/>
-      <c r="U44" s="93"/>
-      <c r="V44" s="93"/>
-      <c r="W44" s="93"/>
-      <c r="X44" s="93"/>
-      <c r="Y44" s="93"/>
-      <c r="Z44" s="93"/>
-      <c r="AA44" s="93"/>
+      <c r="S44" s="97"/>
+      <c r="T44" s="97"/>
+      <c r="U44" s="97"/>
+      <c r="V44" s="97"/>
+      <c r="W44" s="97"/>
+      <c r="X44" s="97"/>
+      <c r="Y44" s="97"/>
+      <c r="Z44" s="97"/>
+      <c r="AA44" s="97"/>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="R45" s="98" t="s">
+      <c r="R45" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="S45" s="98"/>
-      <c r="T45" s="98"/>
-      <c r="U45" s="98"/>
-      <c r="V45" s="98"/>
-      <c r="W45" s="99" t="s">
+      <c r="S45" s="103"/>
+      <c r="T45" s="103"/>
+      <c r="U45" s="103"/>
+      <c r="V45" s="103"/>
+      <c r="W45" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="X45" s="99"/>
-      <c r="Y45" s="99"/>
-      <c r="Z45" s="99"/>
-      <c r="AA45" s="99"/>
+      <c r="X45" s="104"/>
+      <c r="Y45" s="104"/>
+      <c r="Z45" s="104"/>
+      <c r="AA45" s="104"/>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="Q46" t="s">
@@ -5094,102 +5094,102 @@
       <c r="Y53" s="21"/>
       <c r="Z53" s="21"/>
       <c r="AA53" s="21"/>
-      <c r="AB53" s="92">
+      <c r="AB53" s="93">
         <v>39</v>
       </c>
-      <c r="AC53" s="92"/>
-      <c r="AD53" s="92"/>
+      <c r="AC53" s="93"/>
+      <c r="AD53" s="93"/>
     </row>
     <row r="54" spans="17:32" x14ac:dyDescent="0.2">
       <c r="Q54" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R54" s="103">
+      <c r="R54" s="94">
         <v>16</v>
       </c>
-      <c r="S54" s="104"/>
-      <c r="T54" s="104"/>
-      <c r="U54" s="104"/>
-      <c r="V54" s="105"/>
-      <c r="W54" s="92">
+      <c r="S54" s="95"/>
+      <c r="T54" s="95"/>
+      <c r="U54" s="95"/>
+      <c r="V54" s="96"/>
+      <c r="W54" s="93">
         <v>23</v>
       </c>
-      <c r="X54" s="92"/>
-      <c r="Y54" s="92"/>
-      <c r="Z54" s="92"/>
-      <c r="AA54" s="92"/>
-      <c r="AB54" s="103">
+      <c r="X54" s="93"/>
+      <c r="Y54" s="93"/>
+      <c r="Z54" s="93"/>
+      <c r="AA54" s="93"/>
+      <c r="AB54" s="94">
         <v>1170</v>
       </c>
-      <c r="AC54" s="104"/>
-      <c r="AD54" s="105"/>
+      <c r="AC54" s="95"/>
+      <c r="AD54" s="96"/>
     </row>
     <row r="55" spans="17:32" x14ac:dyDescent="0.2">
       <c r="Q55" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R55" s="103">
+      <c r="R55" s="94">
         <v>480</v>
       </c>
-      <c r="S55" s="104"/>
-      <c r="T55" s="104"/>
-      <c r="U55" s="104"/>
-      <c r="V55" s="105"/>
-      <c r="W55" s="92">
+      <c r="S55" s="95"/>
+      <c r="T55" s="95"/>
+      <c r="U55" s="95"/>
+      <c r="V55" s="96"/>
+      <c r="W55" s="93">
         <v>690</v>
       </c>
-      <c r="X55" s="92"/>
-      <c r="Y55" s="92"/>
-      <c r="Z55" s="92"/>
-      <c r="AA55" s="92"/>
-      <c r="AB55" s="103">
+      <c r="X55" s="93"/>
+      <c r="Y55" s="93"/>
+      <c r="Z55" s="93"/>
+      <c r="AA55" s="93"/>
+      <c r="AB55" s="94">
         <v>4</v>
       </c>
-      <c r="AC55" s="104"/>
-      <c r="AD55" s="105"/>
+      <c r="AC55" s="95"/>
+      <c r="AD55" s="96"/>
     </row>
     <row r="56" spans="17:32" x14ac:dyDescent="0.2">
       <c r="Q56" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="R56" s="103">
+      <c r="R56" s="94">
         <v>2</v>
       </c>
-      <c r="S56" s="104"/>
-      <c r="T56" s="104"/>
-      <c r="U56" s="104"/>
-      <c r="V56" s="105"/>
-      <c r="W56" s="92">
+      <c r="S56" s="95"/>
+      <c r="T56" s="95"/>
+      <c r="U56" s="95"/>
+      <c r="V56" s="96"/>
+      <c r="W56" s="93">
         <v>2</v>
       </c>
-      <c r="X56" s="92"/>
-      <c r="Y56" s="92"/>
-      <c r="Z56" s="92"/>
-      <c r="AA56" s="92"/>
-      <c r="AB56" s="103" t="e">
+      <c r="X56" s="93"/>
+      <c r="Y56" s="93"/>
+      <c r="Z56" s="93"/>
+      <c r="AA56" s="93"/>
+      <c r="AB56" s="94" t="e">
         <f>SUM(W56,R56,M56,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AC56" s="104"/>
-      <c r="AD56" s="105"/>
+      <c r="AC56" s="95"/>
+      <c r="AD56" s="96"/>
     </row>
     <row r="61" spans="17:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AB61" s="94" t="s">
+      <c r="AB61" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="AC61" s="94"/>
-      <c r="AD61" s="94"/>
-      <c r="AE61" s="94"/>
-      <c r="AF61" s="94"/>
+      <c r="AC61" s="108"/>
+      <c r="AD61" s="108"/>
+      <c r="AE61" s="108"/>
+      <c r="AF61" s="108"/>
     </row>
     <row r="62" spans="17:32" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AB62" s="100" t="s">
+      <c r="AB62" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AC62" s="101"/>
-      <c r="AD62" s="101"/>
-      <c r="AE62" s="101"/>
-      <c r="AF62" s="102"/>
+      <c r="AC62" s="113"/>
+      <c r="AD62" s="113"/>
+      <c r="AE62" s="113"/>
+      <c r="AF62" s="114"/>
     </row>
     <row r="63" spans="17:32" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="AA63" t="s">
@@ -5302,62 +5302,62 @@
       <c r="AD70" s="21"/>
       <c r="AE70" s="21"/>
       <c r="AF70" s="21"/>
-      <c r="AG70" s="92" t="s">
+      <c r="AG70" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="AH70" s="92"/>
-      <c r="AI70" s="92"/>
+      <c r="AH70" s="93"/>
+      <c r="AI70" s="93"/>
     </row>
     <row r="71" spans="3:35" x14ac:dyDescent="0.2">
       <c r="AA71" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AB71" s="92">
+      <c r="AB71" s="93">
         <v>9</v>
       </c>
-      <c r="AC71" s="92"/>
-      <c r="AD71" s="92"/>
-      <c r="AE71" s="92"/>
-      <c r="AF71" s="92"/>
-      <c r="AG71" s="103">
+      <c r="AC71" s="93"/>
+      <c r="AD71" s="93"/>
+      <c r="AE71" s="93"/>
+      <c r="AF71" s="93"/>
+      <c r="AG71" s="94">
         <v>9</v>
       </c>
-      <c r="AH71" s="104"/>
-      <c r="AI71" s="105"/>
+      <c r="AH71" s="95"/>
+      <c r="AI71" s="96"/>
     </row>
     <row r="72" spans="3:35" x14ac:dyDescent="0.2">
       <c r="AA72" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AB72" s="92">
+      <c r="AB72" s="93">
         <v>270</v>
       </c>
-      <c r="AC72" s="92"/>
-      <c r="AD72" s="92"/>
-      <c r="AE72" s="92"/>
-      <c r="AF72" s="92"/>
-      <c r="AG72" s="103">
+      <c r="AC72" s="93"/>
+      <c r="AD72" s="93"/>
+      <c r="AE72" s="93"/>
+      <c r="AF72" s="93"/>
+      <c r="AG72" s="94">
         <v>270</v>
       </c>
-      <c r="AH72" s="104"/>
-      <c r="AI72" s="105"/>
+      <c r="AH72" s="95"/>
+      <c r="AI72" s="96"/>
     </row>
     <row r="73" spans="3:35" x14ac:dyDescent="0.2">
       <c r="AA73" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AB73" s="92">
+      <c r="AB73" s="93">
         <v>2</v>
       </c>
-      <c r="AC73" s="92"/>
-      <c r="AD73" s="92"/>
-      <c r="AE73" s="92"/>
-      <c r="AF73" s="92"/>
-      <c r="AG73" s="103">
+      <c r="AC73" s="93"/>
+      <c r="AD73" s="93"/>
+      <c r="AE73" s="93"/>
+      <c r="AF73" s="93"/>
+      <c r="AG73" s="94">
         <v>2</v>
       </c>
-      <c r="AH73" s="104"/>
-      <c r="AI73" s="105"/>
+      <c r="AH73" s="95"/>
+      <c r="AI73" s="96"/>
     </row>
     <row r="75" spans="3:35" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="3:35" x14ac:dyDescent="0.2">
@@ -5375,24 +5375,24 @@
       <c r="S77" s="89"/>
     </row>
     <row r="78" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C78" s="106" t="s">
+      <c r="C78" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D78" s="107"/>
-      <c r="E78" s="107"/>
-      <c r="F78" s="107"/>
-      <c r="G78" s="107"/>
-      <c r="H78" s="107"/>
-      <c r="I78" s="108"/>
-      <c r="J78" s="106" t="s">
+      <c r="D78" s="106"/>
+      <c r="E78" s="106"/>
+      <c r="F78" s="106"/>
+      <c r="G78" s="106"/>
+      <c r="H78" s="106"/>
+      <c r="I78" s="107"/>
+      <c r="J78" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="K78" s="107"/>
-      <c r="L78" s="107"/>
-      <c r="M78" s="107"/>
-      <c r="N78" s="107"/>
-      <c r="O78" s="107"/>
-      <c r="P78" s="108"/>
+      <c r="K78" s="106"/>
+      <c r="L78" s="106"/>
+      <c r="M78" s="106"/>
+      <c r="N78" s="106"/>
+      <c r="O78" s="106"/>
+      <c r="P78" s="107"/>
       <c r="R78" s="9">
         <v>1</v>
       </c>
@@ -5669,14 +5669,14 @@
       <c r="S84" s="17"/>
     </row>
     <row r="90" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C90" s="92" t="s">
+      <c r="C90" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="D90" s="92"/>
-      <c r="E90" s="92"/>
-      <c r="G90" s="113"/>
-      <c r="H90" s="113"/>
-      <c r="I90" s="113"/>
+      <c r="D90" s="93"/>
+      <c r="E90" s="93"/>
+      <c r="G90" s="98"/>
+      <c r="H90" s="98"/>
+      <c r="I90" s="98"/>
     </row>
     <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="5" t="s">
@@ -5805,14 +5805,14 @@
       <c r="I99" s="91"/>
     </row>
     <row r="102" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C102" s="92" t="s">
+      <c r="C102" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="D102" s="92"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="92"/>
-      <c r="G102" s="92"/>
-      <c r="H102" s="92"/>
+      <c r="D102" s="93"/>
+      <c r="E102" s="93"/>
+      <c r="F102" s="93"/>
+      <c r="G102" s="93"/>
+      <c r="H102" s="93"/>
     </row>
     <row r="103" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C103" s="5" t="s">
@@ -5839,13 +5839,13 @@
         <v>1</v>
       </c>
       <c r="D104" s="83">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="E104" s="83">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="F104" s="83">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="G104" s="83">
         <v>44893</v>
@@ -5913,7 +5913,7 @@
       <c r="H107" s="83">
         <v>44907</v>
       </c>
-      <c r="I107" s="114"/>
+      <c r="I107" s="92"/>
       <c r="J107" s="90"/>
     </row>
     <row r="108" spans="3:10" x14ac:dyDescent="0.2">
@@ -5958,6 +5958,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="AB72:AF72"/>
+    <mergeCell ref="AB73:AF73"/>
+    <mergeCell ref="R44:AA44"/>
+    <mergeCell ref="AB61:AF61"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="W45:AA45"/>
+    <mergeCell ref="AB62:AF62"/>
+    <mergeCell ref="R56:V56"/>
+    <mergeCell ref="W54:AA54"/>
+    <mergeCell ref="W55:AA55"/>
+    <mergeCell ref="W56:AA56"/>
+    <mergeCell ref="AB71:AF71"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="AG23:AI23"/>
+    <mergeCell ref="AG24:AI24"/>
+    <mergeCell ref="J78:P78"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="M37:Q37"/>
+    <mergeCell ref="M38:Q38"/>
+    <mergeCell ref="M39:Q39"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="W14:AA14"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="R54:V54"/>
+    <mergeCell ref="R55:V55"/>
+    <mergeCell ref="G90:I90"/>
     <mergeCell ref="AG70:AI70"/>
     <mergeCell ref="AG71:AI71"/>
     <mergeCell ref="AG72:AI72"/>
@@ -5974,51 +6019,6 @@
     <mergeCell ref="W23:AA23"/>
     <mergeCell ref="AB25:AF25"/>
     <mergeCell ref="W25:AA25"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="R54:V54"/>
-    <mergeCell ref="R55:V55"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="W14:AA14"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="AG23:AI23"/>
-    <mergeCell ref="AG24:AI24"/>
-    <mergeCell ref="J78:P78"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="M37:Q37"/>
-    <mergeCell ref="M38:Q38"/>
-    <mergeCell ref="M39:Q39"/>
-    <mergeCell ref="AB72:AF72"/>
-    <mergeCell ref="AB73:AF73"/>
-    <mergeCell ref="R44:AA44"/>
-    <mergeCell ref="AB61:AF61"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="R45:V45"/>
-    <mergeCell ref="W45:AA45"/>
-    <mergeCell ref="AB62:AF62"/>
-    <mergeCell ref="R56:V56"/>
-    <mergeCell ref="W54:AA54"/>
-    <mergeCell ref="W55:AA55"/>
-    <mergeCell ref="W56:AA56"/>
-    <mergeCell ref="AB71:AF71"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planificación.xlsx
+++ b/Planificación.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomiabarca/Documents/1_Cuatrimestre/ISO2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA97164-060C-1B4B-81CD-5E92A33C1951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61B20252-E764-47B9-8C30-674882ACC8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{1E22A818-5115-4EEC-BACB-97BF20EAB24C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1E22A818-5115-4EEC-BACB-97BF20EAB24C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="88">
   <si>
     <t>Iteracion 1</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>Final</t>
-  </si>
-  <si>
-    <t>admin</t>
   </si>
   <si>
     <t>Noviembre</t>
@@ -906,7 +903,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -964,9 +961,6 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -990,12 +984,8 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="15" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,21 +1003,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1051,6 +1026,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1066,12 +1056,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="8" xfId="11" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="9" xfId="11" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="10" xfId="11" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Énfasis1" xfId="2" builtinId="30"/>
@@ -2362,41 +2356,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCABCBAC-E3CF-4453-A312-13BD53787315}">
   <dimension ref="B1:AF104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
+    <sheetView tabSelected="1" topLeftCell="G48" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37:T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="15.5" customWidth="1"/>
-    <col min="17" max="19" width="13.5" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="15.5" customWidth="1"/>
-    <col min="22" max="22" width="13.5" customWidth="1"/>
-    <col min="23" max="26" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5" customWidth="1"/>
-    <col min="28" max="29" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" customWidth="1"/>
-    <col min="31" max="31" width="15.33203125" customWidth="1"/>
-    <col min="32" max="32" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.1640625" customWidth="1"/>
+    <col min="14" max="15" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="19" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
+    <col min="23" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" customWidth="1"/>
+    <col min="28" max="29" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.7109375" customWidth="1"/>
+    <col min="31" max="31" width="15.28515625" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="K2" s="49" t="s">
         <v>48</v>
       </c>
@@ -2422,29 +2418,29 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="59">
+        <v>67</v>
+      </c>
+      <c r="K3" s="56">
         <v>1</v>
       </c>
-      <c r="L3" s="59">
+      <c r="L3" s="56">
         <v>1</v>
       </c>
-      <c r="M3" s="59">
+      <c r="M3" s="56">
         <v>1</v>
       </c>
-      <c r="N3" s="59">
+      <c r="N3" s="56">
         <v>5</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="56">
         <v>10</v>
       </c>
       <c r="P3" s="40">
         <v>20</v>
       </c>
-      <c r="Q3" s="58">
+      <c r="Q3" s="55">
         <v>5</v>
       </c>
       <c r="R3" s="41" t="s">
@@ -2460,7 +2456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
@@ -2519,7 +2515,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -2578,7 +2574,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="31">
         <v>2</v>
       </c>
@@ -2604,10 +2600,10 @@
         <v>51</v>
       </c>
       <c r="K6" s="51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B7" s="33">
         <v>3</v>
       </c>
@@ -2660,10 +2656,10 @@
         <v>44</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B8" s="32">
         <v>4</v>
       </c>
@@ -2713,7 +2709,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B9" s="52">
         <v>5</v>
       </c>
@@ -2763,110 +2759,94 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B10" s="55">
-        <v>6</v>
-      </c>
-      <c r="C10" s="56">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="115"/>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B11" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C12" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="56">
-        <v>1</v>
-      </c>
-      <c r="E10" s="56">
-        <v>2</v>
-      </c>
-      <c r="F10" s="56">
+      <c r="S12" s="103"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="56">
-        <v>8</v>
-      </c>
-      <c r="H10" s="57">
-        <v>2</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B11" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="97"/>
-      <c r="AD11" s="97"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="97"/>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="C12" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="100" t="s">
-        <v>2</v>
-      </c>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="115" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="115"/>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="116" t="s">
-        <v>4</v>
-      </c>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="116"/>
-      <c r="Z12" s="116"/>
-      <c r="AA12" s="116"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
-    </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="80"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="80"/>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
@@ -2947,7 +2927,7 @@
       </c>
       <c r="AB13" s="5"/>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
@@ -3026,11 +3006,11 @@
       <c r="AA14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AB14" s="88" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AB14" s="83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
@@ -3084,7 +3064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
@@ -3123,12 +3103,12 @@
       </c>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
-      <c r="AB16" s="88">
+      <c r="AB16" s="83">
         <f>SUM(Y16,T16,O16,J16,E16)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
@@ -3172,7 +3152,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
@@ -3211,18 +3191,18 @@
         <v>6</v>
       </c>
       <c r="AA18" s="5"/>
-      <c r="AB18" s="88">
+      <c r="AB18" s="83">
         <f>SUM(Z18,U18,P18:U18,K18,F18)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="AB19" t="e">
         <f>SUM(#REF!,AA20,V20,Q20,L20,G20)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
@@ -3266,10 +3246,10 @@
         <v>28</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
@@ -3304,24 +3284,21 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="88">
+      <c r="W21" s="83">
         <f>SUM(W15,X15,Y16,Y17,Z18,Z19,AA20)</f>
         <v>20</v>
       </c>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="88"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="90">
+      <c r="X21" s="83"/>
+      <c r="Y21" s="83"/>
+      <c r="Z21" s="83"/>
+      <c r="AA21" s="83"/>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="85">
         <f>SUM(AB21,W21,R21,M21,H21,C21)</f>
         <v>151</v>
       </c>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="81"/>
-      <c r="AF21" s="81"/>
-    </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
@@ -3360,17 +3337,14 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
-      <c r="AB22" s="87">
+      <c r="AB22" s="82">
         <v>360</v>
       </c>
       <c r="AC22" s="1">
         <v>4590</v>
       </c>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="81"/>
-      <c r="AF22" s="81"/>
-    </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>47</v>
       </c>
@@ -3402,70 +3376,67 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="88">
+      <c r="W23" s="83">
         <v>3</v>
       </c>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="88"/>
-      <c r="AB23" s="89">
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="84">
         <v>2</v>
       </c>
-      <c r="AC23" s="90">
+      <c r="AC23" s="85">
         <f>SUM(AB23,W23,R23,M23,H23,C23)</f>
         <v>19</v>
       </c>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="81"/>
-    </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="C25" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-    </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="C26" s="98" t="s">
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C25" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C26" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="99" t="s">
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="100" t="s">
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="85"/>
-    </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>5</v>
       </c>
@@ -3515,7 +3486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>31</v>
       </c>
@@ -3537,35 +3508,35 @@
       <c r="H28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="60" t="s">
+      <c r="I28" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="60" t="s">
+      <c r="J28" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="K28" s="60" t="s">
+      <c r="K28" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="L28" s="60" t="s">
+      <c r="L28" s="57" t="s">
         <v>36</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N28" s="60" t="s">
+      <c r="N28" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="60" t="s">
+      <c r="O28" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="P28" s="60" t="s">
+      <c r="P28" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="Q28" s="60" t="s">
+      <c r="Q28" s="57" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
@@ -3599,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>39</v>
       </c>
@@ -3631,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>40</v>
       </c>
@@ -3657,7 +3628,7 @@
       </c>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>41</v>
       </c>
@@ -3683,7 +3654,7 @@
       </c>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="2:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>42</v>
       </c>
@@ -3709,7 +3680,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>43</v>
       </c>
@@ -3740,145 +3711,145 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="S34" s="103"/>
-      <c r="T34" s="103"/>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B35" s="88" t="s">
+      <c r="R34" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B35" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="110">
+      <c r="C35" s="105">
         <v>41</v>
       </c>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110">
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105">
         <v>16</v>
       </c>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110">
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105">
         <v>16</v>
       </c>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="104">
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="94">
         <v>73</v>
       </c>
-      <c r="S35" s="105"/>
-      <c r="T35" s="106"/>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="S35" s="95"/>
+      <c r="T35" s="96"/>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="103">
+      <c r="C36" s="93">
         <v>1230</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103">
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93">
         <v>480</v>
       </c>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103">
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93">
         <v>480</v>
       </c>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="107">
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="97">
         <v>2190</v>
       </c>
-      <c r="S36" s="108"/>
-      <c r="T36" s="109"/>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B37" s="88" t="s">
+      <c r="S36" s="98"/>
+      <c r="T36" s="99"/>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B37" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="110">
+      <c r="C37" s="105">
         <v>4</v>
       </c>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110">
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105">
         <v>2</v>
       </c>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="110">
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105">
         <v>2</v>
       </c>
-      <c r="N37" s="110"/>
-      <c r="O37" s="110"/>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="110"/>
-      <c r="R37" s="104">
+      <c r="N37" s="105"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="94">
         <v>8</v>
       </c>
-      <c r="S37" s="105"/>
-      <c r="T37" s="106"/>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="M39" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="N39" s="97"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="97"/>
-      <c r="Q39" s="97"/>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="R42" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="S42" s="97"/>
-      <c r="T42" s="97"/>
-      <c r="U42" s="97"/>
-      <c r="V42" s="97"/>
-      <c r="W42" s="97"/>
-      <c r="X42" s="97"/>
-      <c r="Y42" s="97"/>
-      <c r="Z42" s="97"/>
-      <c r="AA42" s="97"/>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="R43" s="101" t="s">
+      <c r="S37" s="95"/>
+      <c r="T37" s="96"/>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="M39" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="N39" s="92"/>
+      <c r="O39" s="92"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="92"/>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="R42" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="S42" s="92"/>
+      <c r="T42" s="92"/>
+      <c r="U42" s="92"/>
+      <c r="V42" s="92"/>
+      <c r="W42" s="92"/>
+      <c r="X42" s="92"/>
+      <c r="Y42" s="92"/>
+      <c r="Z42" s="92"/>
+      <c r="AA42" s="92"/>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="R43" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="101"/>
-      <c r="T43" s="101"/>
-      <c r="U43" s="101"/>
-      <c r="V43" s="101"/>
-      <c r="W43" s="102" t="s">
+      <c r="S43" s="110"/>
+      <c r="T43" s="110"/>
+      <c r="U43" s="110"/>
+      <c r="V43" s="110"/>
+      <c r="W43" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="X43" s="102"/>
-      <c r="Y43" s="102"/>
-      <c r="Z43" s="102"/>
-      <c r="AA43" s="102"/>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="X43" s="111"/>
+      <c r="Y43" s="111"/>
+      <c r="Z43" s="111"/>
+      <c r="AA43" s="111"/>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Q44" t="s">
         <v>5</v>
       </c>
@@ -3913,7 +3884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Q45" s="1" t="s">
         <v>31</v>
       </c>
@@ -3948,7 +3919,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Q46" s="17" t="s">
         <v>37</v>
       </c>
@@ -3971,7 +3942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Q47" s="17" t="s">
         <v>39</v>
       </c>
@@ -3994,7 +3965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Q48" s="17" t="s">
         <v>40</v>
       </c>
@@ -4013,7 +3984,7 @@
       </c>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.25">
       <c r="Q49" s="17" t="s">
         <v>41</v>
       </c>
@@ -4032,7 +4003,7 @@
       </c>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="3:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="Q50" s="17" t="s">
         <v>42</v>
       </c>
@@ -4051,7 +4022,7 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
     </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:30" x14ac:dyDescent="0.25">
       <c r="Q51" s="18" t="s">
         <v>43</v>
       </c>
@@ -4073,185 +4044,185 @@
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
-      <c r="AB51" s="103">
+      <c r="AB51" s="93">
         <v>39</v>
       </c>
-      <c r="AC51" s="103"/>
-      <c r="AD51" s="103"/>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="Q52" s="91" t="s">
+      <c r="AC51" s="93"/>
+      <c r="AD51" s="93"/>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="Q52" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="R52" s="104">
+      <c r="R52" s="94">
         <v>16</v>
       </c>
-      <c r="S52" s="105"/>
-      <c r="T52" s="105"/>
-      <c r="U52" s="105"/>
-      <c r="V52" s="106"/>
-      <c r="W52" s="110">
+      <c r="S52" s="95"/>
+      <c r="T52" s="95"/>
+      <c r="U52" s="95"/>
+      <c r="V52" s="96"/>
+      <c r="W52" s="105">
         <v>23</v>
       </c>
-      <c r="X52" s="110"/>
-      <c r="Y52" s="110"/>
-      <c r="Z52" s="110"/>
-      <c r="AA52" s="110"/>
-      <c r="AB52" s="104">
+      <c r="X52" s="105"/>
+      <c r="Y52" s="105"/>
+      <c r="Z52" s="105"/>
+      <c r="AA52" s="105"/>
+      <c r="AB52" s="94">
         <v>1170</v>
       </c>
-      <c r="AC52" s="105"/>
-      <c r="AD52" s="106"/>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC52" s="95"/>
+      <c r="AD52" s="96"/>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.25">
       <c r="Q53" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="R53" s="107">
+      <c r="R53" s="97">
         <v>480</v>
       </c>
-      <c r="S53" s="108"/>
-      <c r="T53" s="108"/>
-      <c r="U53" s="108"/>
-      <c r="V53" s="109"/>
-      <c r="W53" s="103">
+      <c r="S53" s="98"/>
+      <c r="T53" s="98"/>
+      <c r="U53" s="98"/>
+      <c r="V53" s="99"/>
+      <c r="W53" s="93">
         <v>690</v>
       </c>
-      <c r="X53" s="103"/>
-      <c r="Y53" s="103"/>
-      <c r="Z53" s="103"/>
-      <c r="AA53" s="103"/>
-      <c r="AB53" s="107">
+      <c r="X53" s="93"/>
+      <c r="Y53" s="93"/>
+      <c r="Z53" s="93"/>
+      <c r="AA53" s="93"/>
+      <c r="AB53" s="97">
         <v>4</v>
       </c>
-      <c r="AC53" s="108"/>
-      <c r="AD53" s="109"/>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="Q54" s="88" t="s">
+      <c r="AC53" s="98"/>
+      <c r="AD53" s="99"/>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="Q54" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="R54" s="104">
+      <c r="R54" s="94">
         <v>2</v>
       </c>
-      <c r="S54" s="105"/>
-      <c r="T54" s="105"/>
-      <c r="U54" s="105"/>
-      <c r="V54" s="106"/>
-      <c r="W54" s="110">
+      <c r="S54" s="95"/>
+      <c r="T54" s="95"/>
+      <c r="U54" s="95"/>
+      <c r="V54" s="96"/>
+      <c r="W54" s="105">
         <v>2</v>
       </c>
-      <c r="X54" s="110"/>
-      <c r="Y54" s="110"/>
-      <c r="Z54" s="110"/>
-      <c r="AA54" s="110"/>
-      <c r="AB54" s="104" t="e">
-        <f>SUM(W54,R54,M54,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC54" s="105"/>
-      <c r="AD54" s="106"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="W56" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="X56" s="97"/>
-      <c r="Y56" s="97"/>
-      <c r="Z56" s="97"/>
-      <c r="AA56" s="97"/>
-    </row>
-    <row r="60" spans="3:30" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C61" s="111" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="113"/>
-      <c r="J61" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="K61" s="112"/>
-      <c r="L61" s="112"/>
-      <c r="M61" s="112"/>
-      <c r="N61" s="112"/>
-      <c r="O61" s="112"/>
-      <c r="P61" s="113"/>
+      <c r="X54" s="105"/>
+      <c r="Y54" s="105"/>
+      <c r="Z54" s="105"/>
+      <c r="AA54" s="105"/>
+      <c r="AB54" s="94">
+        <f>SUM(W54,R54)</f>
+        <v>4</v>
+      </c>
+      <c r="AC54" s="95"/>
+      <c r="AD54" s="96"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="W56" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="X56" s="92"/>
+      <c r="Y56" s="92"/>
+      <c r="Z56" s="92"/>
+      <c r="AA56" s="92"/>
+    </row>
+    <row r="60" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C61" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="K61" s="107"/>
+      <c r="L61" s="107"/>
+      <c r="M61" s="107"/>
+      <c r="N61" s="107"/>
+      <c r="O61" s="107"/>
+      <c r="P61" s="108"/>
       <c r="R61" s="12" t="s">
         <v>52</v>
       </c>
       <c r="S61" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="3:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C62" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="G62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H62" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="I62" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N62" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="O62" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P62" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I62" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O62" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P62" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="R62" s="9">
         <v>0</v>
       </c>
-      <c r="S62" s="80"/>
-      <c r="U62" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="V62" s="114"/>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C63" s="72"/>
-      <c r="D63" s="73">
+      <c r="S62" s="77"/>
+      <c r="U62" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="V62" s="109"/>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C63" s="69"/>
+      <c r="D63" s="70">
         <v>1</v>
       </c>
-      <c r="E63" s="73">
+      <c r="E63" s="70">
         <v>2</v>
       </c>
-      <c r="F63" s="71">
+      <c r="F63" s="68">
         <v>3</v>
       </c>
-      <c r="G63" s="71">
+      <c r="G63" s="68">
         <v>4</v>
       </c>
       <c r="H63" s="5">
@@ -4263,10 +4234,10 @@
       <c r="J63" s="9"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="62">
+      <c r="M63" s="59">
         <v>1</v>
       </c>
-      <c r="N63" s="62">
+      <c r="N63" s="59">
         <v>2</v>
       </c>
       <c r="O63" s="5">
@@ -4280,26 +4251,26 @@
       </c>
       <c r="S63" s="14"/>
       <c r="U63" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="V63" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="V63" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C64" s="70">
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C64" s="67">
         <v>7</v>
       </c>
-      <c r="D64" s="71">
+      <c r="D64" s="68">
         <v>8</v>
       </c>
-      <c r="E64" s="71">
+      <c r="E64" s="68">
         <v>9</v>
       </c>
-      <c r="F64" s="71">
+      <c r="F64" s="68">
         <v>10</v>
       </c>
-      <c r="G64" s="71">
+      <c r="G64" s="68">
         <v>11</v>
       </c>
       <c r="H64" s="5">
@@ -4308,19 +4279,19 @@
       <c r="I64" s="25">
         <v>13</v>
       </c>
-      <c r="J64" s="63">
+      <c r="J64" s="60">
         <v>5</v>
       </c>
-      <c r="K64" s="64">
+      <c r="K64" s="61">
         <v>6</v>
       </c>
-      <c r="L64" s="64">
+      <c r="L64" s="61">
         <v>7</v>
       </c>
-      <c r="M64" s="65">
+      <c r="M64" s="62">
         <v>8</v>
       </c>
-      <c r="N64" s="65">
+      <c r="N64" s="62">
         <v>9</v>
       </c>
       <c r="O64" s="5">
@@ -4334,26 +4305,26 @@
       </c>
       <c r="S64" s="15"/>
       <c r="U64" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="V64" s="95">
+        <v>85</v>
+      </c>
+      <c r="V64" s="90">
         <v>44904</v>
       </c>
     </row>
-    <row r="65" spans="3:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="77">
+    <row r="65" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="74">
         <v>14</v>
       </c>
-      <c r="D65" s="78">
+      <c r="D65" s="75">
         <v>15</v>
       </c>
-      <c r="E65" s="78">
+      <c r="E65" s="75">
         <v>16</v>
       </c>
-      <c r="F65" s="78">
+      <c r="F65" s="75">
         <v>17</v>
       </c>
-      <c r="G65" s="78">
+      <c r="G65" s="75">
         <v>18</v>
       </c>
       <c r="H65" s="5">
@@ -4362,19 +4333,19 @@
       <c r="I65" s="25">
         <v>20</v>
       </c>
-      <c r="J65" s="66">
+      <c r="J65" s="63">
         <v>12</v>
       </c>
-      <c r="K65" s="67">
+      <c r="K65" s="64">
         <v>13</v>
       </c>
-      <c r="L65" s="67">
+      <c r="L65" s="64">
         <v>14</v>
       </c>
-      <c r="M65" s="67">
+      <c r="M65" s="64">
         <v>15</v>
       </c>
-      <c r="N65" s="69">
+      <c r="N65" s="66">
         <v>16</v>
       </c>
       <c r="O65" s="5">
@@ -4386,19 +4357,19 @@
       <c r="R65" s="9">
         <v>3</v>
       </c>
-      <c r="S65" s="94"/>
+      <c r="S65" s="89"/>
       <c r="U65" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="V65" s="96">
+        <v>86</v>
+      </c>
+      <c r="V65" s="91">
         <v>44916</v>
       </c>
     </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C66" s="79">
+    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C66" s="76">
         <v>21</v>
       </c>
-      <c r="D66" s="78">
+      <c r="D66" s="75">
         <v>22</v>
       </c>
       <c r="E66" s="24">
@@ -4416,19 +4387,19 @@
       <c r="I66" s="25">
         <v>27</v>
       </c>
-      <c r="J66" s="92">
+      <c r="J66" s="87">
         <v>19</v>
       </c>
-      <c r="K66" s="69">
+      <c r="K66" s="66">
         <v>20</v>
       </c>
-      <c r="L66" s="69">
+      <c r="L66" s="66">
         <v>21</v>
       </c>
-      <c r="M66" s="69">
+      <c r="M66" s="66">
         <v>22</v>
       </c>
-      <c r="N66" s="69">
+      <c r="N66" s="66">
         <v>23</v>
       </c>
       <c r="O66" s="5">
@@ -4442,33 +4413,33 @@
       </c>
       <c r="S66" s="28"/>
     </row>
-    <row r="67" spans="3:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C67" s="29">
         <v>28</v>
       </c>
       <c r="D67" s="23">
         <v>29</v>
       </c>
-      <c r="E67" s="61">
+      <c r="E67" s="58">
         <v>30</v>
       </c>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
       <c r="H67" s="10"/>
       <c r="I67" s="26"/>
-      <c r="J67" s="75">
+      <c r="J67" s="72">
         <v>26</v>
       </c>
-      <c r="K67" s="76">
+      <c r="K67" s="73">
         <v>27</v>
       </c>
-      <c r="L67" s="76">
+      <c r="L67" s="73">
         <v>28</v>
       </c>
-      <c r="M67" s="93">
+      <c r="M67" s="88">
         <v>29</v>
       </c>
-      <c r="N67" s="93">
+      <c r="N67" s="88">
         <v>30</v>
       </c>
       <c r="O67" s="10">
@@ -4478,55 +4449,55 @@
       <c r="R67" s="27">
         <v>5</v>
       </c>
-      <c r="S67" s="68"/>
-    </row>
-    <row r="68" spans="3:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S67" s="65"/>
+    </row>
+    <row r="68" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R68" s="11" t="s">
         <v>56</v>
       </c>
       <c r="S68" s="16"/>
     </row>
-    <row r="71" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C71" s="103" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
-    </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C71" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+    </row>
+    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C72" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D72" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G72" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="H72" s="103"/>
-      <c r="I72" s="103"/>
-      <c r="J72" s="103"/>
-      <c r="K72" s="103"/>
-      <c r="L72" s="103"/>
-    </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="G72" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72" s="93"/>
+      <c r="I72" s="93"/>
+      <c r="J72" s="93"/>
+      <c r="K72" s="93"/>
+      <c r="L72" s="93"/>
+    </row>
+    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C73" s="5">
         <v>0</v>
       </c>
-      <c r="D73" s="74">
+      <c r="D73" s="71">
         <v>44881</v>
       </c>
-      <c r="E73" s="74">
+      <c r="E73" s="71">
         <v>44887</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>33</v>
@@ -4541,197 +4512,215 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C74" s="5">
         <v>1</v>
       </c>
-      <c r="D74" s="74">
+      <c r="D74" s="71">
         <v>44890</v>
       </c>
-      <c r="E74" s="74">
+      <c r="E74" s="71">
         <v>44894</v>
       </c>
       <c r="G74" s="5">
         <v>1</v>
       </c>
-      <c r="H74" s="74">
+      <c r="H74" s="71">
         <v>44891</v>
       </c>
-      <c r="I74" s="74">
+      <c r="I74" s="71">
         <v>44891</v>
       </c>
-      <c r="J74" s="74">
+      <c r="J74" s="71">
         <v>44891</v>
       </c>
-      <c r="K74" s="74">
+      <c r="K74" s="71">
         <v>44893</v>
       </c>
-      <c r="L74" s="74">
+      <c r="L74" s="71">
         <v>44894</v>
       </c>
     </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C75" s="5">
         <v>2</v>
       </c>
-      <c r="D75" s="74">
+      <c r="D75" s="71">
         <v>44902</v>
       </c>
-      <c r="E75" s="74">
+      <c r="E75" s="71">
         <v>44904</v>
       </c>
       <c r="G75" s="5">
         <v>2</v>
       </c>
-      <c r="H75" s="74">
+      <c r="H75" s="71">
         <v>44902</v>
       </c>
-      <c r="I75" s="74">
+      <c r="I75" s="71">
         <v>44902</v>
       </c>
-      <c r="J75" s="74">
+      <c r="J75" s="71">
         <v>44903</v>
       </c>
-      <c r="K75" s="74">
+      <c r="K75" s="71">
         <v>44903</v>
       </c>
-      <c r="L75" s="74">
+      <c r="L75" s="71">
         <v>44904</v>
       </c>
     </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C76" s="5">
         <v>3</v>
       </c>
-      <c r="D76" s="74">
+      <c r="D76" s="71">
         <v>44906</v>
       </c>
-      <c r="E76" s="74">
+      <c r="E76" s="71">
         <v>44908</v>
       </c>
       <c r="G76" s="5">
         <v>3</v>
       </c>
-      <c r="H76" s="74">
+      <c r="H76" s="71">
         <v>44906</v>
       </c>
-      <c r="I76" s="74">
+      <c r="I76" s="71">
         <v>44906</v>
       </c>
-      <c r="J76" s="74">
+      <c r="J76" s="71">
         <v>44907</v>
       </c>
-      <c r="K76" s="74">
+      <c r="K76" s="71">
         <v>44907</v>
       </c>
-      <c r="L76" s="74">
+      <c r="L76" s="71">
         <v>44908</v>
       </c>
     </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C77" s="5">
         <v>4</v>
       </c>
-      <c r="D77" s="74">
+      <c r="D77" s="71">
         <v>44910</v>
       </c>
-      <c r="E77" s="74">
+      <c r="E77" s="71">
         <v>44912</v>
       </c>
       <c r="G77" s="5">
         <v>4</v>
       </c>
-      <c r="H77" s="74">
+      <c r="H77" s="71">
         <v>44910</v>
       </c>
-      <c r="I77" s="74">
+      <c r="I77" s="71">
         <v>44910</v>
       </c>
-      <c r="J77" s="74">
+      <c r="J77" s="71">
         <v>44911</v>
       </c>
-      <c r="K77" s="74">
+      <c r="K77" s="71">
         <v>44911</v>
       </c>
-      <c r="L77" s="74">
+      <c r="L77" s="71">
         <v>44912</v>
       </c>
     </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C78" s="5">
         <v>5</v>
       </c>
-      <c r="D78" s="74">
+      <c r="D78" s="71">
         <v>44914</v>
       </c>
-      <c r="E78" s="74">
+      <c r="E78" s="71">
         <v>44916</v>
       </c>
       <c r="G78" s="5">
         <v>5</v>
       </c>
-      <c r="H78" s="74">
+      <c r="H78" s="71">
         <v>44914</v>
       </c>
-      <c r="I78" s="74">
+      <c r="I78" s="71">
         <v>44914</v>
       </c>
-      <c r="J78" s="74">
+      <c r="J78" s="71">
         <v>44915</v>
       </c>
-      <c r="K78" s="74">
+      <c r="K78" s="71">
         <v>44915</v>
       </c>
-      <c r="L78" s="74">
+      <c r="L78" s="71">
         <v>44916</v>
       </c>
     </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C79" s="81"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="82"/>
-    </row>
-    <row r="90" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G90" s="81"/>
-      <c r="H90" s="82"/>
-      <c r="I90" s="82"/>
-    </row>
-    <row r="91" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G91" s="81"/>
-      <c r="H91" s="82"/>
-      <c r="I91" s="82"/>
-    </row>
-    <row r="92" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G92" s="81"/>
-      <c r="H92" s="82"/>
-      <c r="I92" s="82"/>
-    </row>
-    <row r="93" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G93" s="81"/>
-      <c r="H93" s="82"/>
-      <c r="I93" s="82"/>
-    </row>
-    <row r="94" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G94" s="81"/>
-      <c r="H94" s="82"/>
-      <c r="I94" s="82"/>
-    </row>
-    <row r="95" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G95" s="81"/>
-      <c r="H95" s="82"/>
-      <c r="I95" s="82"/>
-    </row>
-    <row r="96" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G96" s="81"/>
-      <c r="H96" s="82"/>
-      <c r="I96" s="82"/>
-    </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I104" s="83"/>
-      <c r="J104" s="81"/>
+    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D79" s="78"/>
+      <c r="E79" s="78"/>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H90" s="78"/>
+      <c r="I90" s="78"/>
+    </row>
+    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H91" s="78"/>
+      <c r="I91" s="78"/>
+    </row>
+    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H92" s="78"/>
+      <c r="I92" s="78"/>
+    </row>
+    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H93" s="78"/>
+      <c r="I93" s="78"/>
+    </row>
+    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H94" s="78"/>
+      <c r="I94" s="78"/>
+    </row>
+    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H95" s="78"/>
+      <c r="I95" s="78"/>
+    </row>
+    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H96" s="78"/>
+      <c r="I96" s="78"/>
+    </row>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I104" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="R42:AA42"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="R43:V43"/>
+    <mergeCell ref="W43:AA43"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="M36:Q36"/>
+    <mergeCell ref="M37:Q37"/>
+    <mergeCell ref="R54:V54"/>
+    <mergeCell ref="W52:AA52"/>
+    <mergeCell ref="W53:AA53"/>
+    <mergeCell ref="W54:AA54"/>
+    <mergeCell ref="G72:L72"/>
+    <mergeCell ref="C61:I61"/>
+    <mergeCell ref="J61:P61"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="R52:V52"/>
+    <mergeCell ref="R53:V53"/>
+    <mergeCell ref="W56:AA56"/>
+    <mergeCell ref="U62:V62"/>
     <mergeCell ref="B11:AF11"/>
     <mergeCell ref="AB51:AD51"/>
     <mergeCell ref="AB52:AD52"/>
@@ -4748,33 +4737,6 @@
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="H35:L35"/>
-    <mergeCell ref="R54:V54"/>
-    <mergeCell ref="W52:AA52"/>
-    <mergeCell ref="W53:AA53"/>
-    <mergeCell ref="W54:AA54"/>
-    <mergeCell ref="G72:L72"/>
-    <mergeCell ref="C61:I61"/>
-    <mergeCell ref="J61:P61"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="R52:V52"/>
-    <mergeCell ref="R53:V53"/>
-    <mergeCell ref="W56:AA56"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="R42:AA42"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="R43:V43"/>
-    <mergeCell ref="W43:AA43"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="M36:Q36"/>
-    <mergeCell ref="M37:Q37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
